--- a/bin/mia-result/Inference/Comparison_Inference.xlsx
+++ b/bin/mia-result/Inference/Comparison_Inference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\MIALab_project\bin\mia-result\Inference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7361bdf95a53a600/Dokumente/Nic_Stuff/GitHub/MIALab_project/bin/mia-result/Inference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C70A7D-D5C1-4A04-B2FF-825B1DF9420E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{25C70A7D-D5C1-4A04-B2FF-825B1DF9420E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69D156E6-AFEE-435E-A538-BECFB5FB9CE5}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{73FE12BE-8B54-41A6-82E6-6759D218AA6A}"/>
+    <workbookView xWindow="23715" yWindow="750" windowWidth="26640" windowHeight="15435" xr2:uid="{73FE12BE-8B54-41A6-82E6-6759D218AA6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -492,12 +492,12 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -545,8 +545,8 @@
       <c r="G2" s="3">
         <v>0.71004202499904456</v>
       </c>
-      <c r="H2" s="3">
-        <v>0.56135964934357974</v>
+      <c r="H2">
+        <v>0.58946190799999998</v>
       </c>
       <c r="J2">
         <f>_xlfn.RANK.AVG(D2,D2:H2)</f>
@@ -554,7 +554,7 @@
       </c>
       <c r="K2">
         <f>_xlfn.RANK.AVG(E2,D2:H2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2">
         <f>_xlfn.RANK.AVG(F2,D2:H2)</f>
@@ -566,10 +566,10 @@
       </c>
       <c r="N2">
         <f>_xlfn.RANK.AVG(H2,D2:H2)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -591,8 +591,8 @@
       <c r="G3" s="3">
         <v>4.3181951091555523E-2</v>
       </c>
-      <c r="H3" s="3">
-        <v>5.1779857268535116E-2</v>
+      <c r="H3">
+        <v>5.0649082999999998E-2</v>
       </c>
       <c r="J3">
         <f>_xlfn.RANK.AVG(D3,$D$3:$H$3,1)</f>
@@ -615,7 +615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -637,16 +637,16 @@
       <c r="G4" s="3">
         <v>3.2530372482141829</v>
       </c>
-      <c r="H4" s="3">
-        <v>12.398573319141429</v>
+      <c r="H4">
+        <v>11.69980597</v>
       </c>
       <c r="J4">
         <f>_xlfn.RANK.AVG(D4,$D$4:$H$4,1)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K4">
         <f>_xlfn.RANK.AVG(E4,$D$4:$H$4,1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4">
         <f>_xlfn.RANK.AVG(F4,$D$4:$H$4,1)</f>
@@ -658,10 +658,10 @@
       </c>
       <c r="N4">
         <f>_xlfn.RANK.AVG(H4,$D$4:$H$4,1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -683,8 +683,8 @@
       <c r="G5" s="3">
         <v>0.59418353106602995</v>
       </c>
-      <c r="H5" s="3">
-        <v>1.4435217928822683</v>
+      <c r="H5">
+        <v>1.4585153630000001</v>
       </c>
       <c r="J5">
         <f>_xlfn.RANK.AVG(D5,$D$5:$H$5,1)</f>
@@ -707,7 +707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -729,8 +729,8 @@
       <c r="G6" s="3">
         <v>0.61577753447747274</v>
       </c>
-      <c r="H6" s="3">
-        <v>0.71050314425454419</v>
+      <c r="H6">
+        <v>0.69579363100000002</v>
       </c>
       <c r="J6">
         <f>_xlfn.RANK.AVG(D6,D6:H6)</f>
@@ -738,7 +738,7 @@
       </c>
       <c r="K6">
         <f>_xlfn.RANK.AVG(E6,D6:H6)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <f>_xlfn.RANK.AVG(F6,D6:H6)</f>
@@ -750,10 +750,10 @@
       </c>
       <c r="N6">
         <f>_xlfn.RANK.AVG(H6,D6:H6)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -775,8 +775,8 @@
       <c r="G7" s="3">
         <v>1.5872471779325437E-2</v>
       </c>
-      <c r="H7" s="3">
-        <v>7.7223001599205435E-3</v>
+      <c r="H7">
+        <v>7.6160489999999997E-3</v>
       </c>
       <c r="J7">
         <f>_xlfn.RANK.AVG(D7,D7:H7,1)</f>
@@ -784,7 +784,7 @@
       </c>
       <c r="K7">
         <f>_xlfn.RANK.AVG(E7,D7:H7,1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <f>_xlfn.RANK.AVG(F7,D7:H7,1)</f>
@@ -796,10 +796,10 @@
       </c>
       <c r="N7">
         <f>_xlfn.RANK.AVG(H7,D7:H7,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -821,8 +821,8 @@
       <c r="G8" s="3">
         <v>15.14690456211564</v>
       </c>
-      <c r="H8" s="3">
-        <v>2.592089191705047</v>
+      <c r="H8">
+        <v>2.9440194530000001</v>
       </c>
       <c r="J8">
         <f>_xlfn.RANK.AVG(D8,D8:H8,1)</f>
@@ -830,7 +830,7 @@
       </c>
       <c r="K8">
         <f>_xlfn.RANK.AVG(E8,D8:H8,1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <f>_xlfn.RANK.AVG(F8,D8:H8,1)</f>
@@ -842,10 +842,10 @@
       </c>
       <c r="N8">
         <f>_xlfn.RANK.AVG(H8,D8:H8,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -867,8 +867,8 @@
       <c r="G9" s="3">
         <v>2.6397142492994545</v>
       </c>
-      <c r="H9" s="3">
-        <v>0.30013630652656476</v>
+      <c r="H9">
+        <v>0.19075715100000001</v>
       </c>
       <c r="J9">
         <f>_xlfn.RANK.AVG(D9,D9:H9,1)</f>
@@ -876,7 +876,7 @@
       </c>
       <c r="K9">
         <f>_xlfn.RANK.AVG(E9,D9:H9,1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <f>_xlfn.RANK.AVG(F9,D9:H9,1)</f>
@@ -888,10 +888,10 @@
       </c>
       <c r="N9">
         <f>_xlfn.RANK.AVG(H9,D9:H9,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -913,16 +913,16 @@
       <c r="G10" s="3">
         <v>0.71036812357750245</v>
       </c>
-      <c r="H10" s="3">
-        <v>0.55640179687153846</v>
+      <c r="H10">
+        <v>0.590960343</v>
       </c>
       <c r="J10">
         <f>_xlfn.RANK.AVG(D10,D10:H10)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K10">
         <f>_xlfn.RANK.AVG(E10,D10:H10)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10">
         <f>_xlfn.RANK.AVG(F10,D10:H10)</f>
@@ -934,10 +934,10 @@
       </c>
       <c r="N10">
         <f>_xlfn.RANK.AVG(H10,D10:H10)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -959,8 +959,8 @@
       <c r="G11" s="3">
         <v>2.6905989942697554E-2</v>
       </c>
-      <c r="H11" s="3">
-        <v>2.6153682462053265E-2</v>
+      <c r="H11">
+        <v>3.2540575000000002E-2</v>
       </c>
       <c r="J11">
         <f>_xlfn.RANK.AVG(D11,D11:H11,1)</f>
@@ -968,22 +968,22 @@
       </c>
       <c r="K11">
         <f>_xlfn.RANK.AVG(E11,D11:H11,1)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <f>_xlfn.RANK.AVG(F11,D11:H11,1)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M11">
         <f>_xlfn.RANK.AVG(G11,D11:H11,1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <f>_xlfn.RANK.AVG(H11,D11:H11,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1005,16 +1005,16 @@
       <c r="G12" s="3">
         <v>3.5734310276364694</v>
       </c>
-      <c r="H12" s="3">
-        <v>11.774264254943061</v>
+      <c r="H12">
+        <v>8.4875240200000004</v>
       </c>
       <c r="J12">
         <f>_xlfn.RANK.AVG(D12,D12:H12,1)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K12">
         <f>_xlfn.RANK.AVG(E12,D12:H12,1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L12">
         <f>_xlfn.RANK.AVG(F12,D12:H12,1)</f>
@@ -1026,10 +1026,10 @@
       </c>
       <c r="N12">
         <f>_xlfn.RANK.AVG(H12,D12:H12,1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1051,16 +1051,16 @@
       <c r="G13" s="3">
         <v>0.60607176942535079</v>
       </c>
-      <c r="H13" s="3">
-        <v>1.1385669622475598</v>
+      <c r="H13">
+        <v>1.783235514</v>
       </c>
       <c r="J13">
         <f>_xlfn.RANK.AVG(D13,D13:H13,1)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13">
         <f>_xlfn.RANK.AVG(E13,D13:H13,1)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L13">
         <f>_xlfn.RANK.AVG(F13,D13:H13,1)</f>
@@ -1072,10 +1072,10 @@
       </c>
       <c r="N13">
         <f>_xlfn.RANK.AVG(H13,D13:H13,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1097,16 +1097,16 @@
       <c r="G14" s="3">
         <v>0.81385170089844916</v>
       </c>
-      <c r="H14" s="3">
-        <v>0.75077221168078789</v>
+      <c r="H14">
+        <v>0.769530979</v>
       </c>
       <c r="J14">
         <f>_xlfn.RANK.AVG(D14,D14:H14)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K14">
         <f>_xlfn.RANK.AVG(E14,D14:H14)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L14">
         <f>_xlfn.RANK.AVG(F14,D14:H14)</f>
@@ -1118,10 +1118,10 @@
       </c>
       <c r="N14">
         <f>_xlfn.RANK.AVG(H14,D14:H14)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1143,8 +1143,8 @@
       <c r="G15" s="3">
         <v>3.2549700903278425E-2</v>
       </c>
-      <c r="H15" s="3">
-        <v>3.2621311808836824E-2</v>
+      <c r="H15">
+        <v>3.1823054000000003E-2</v>
       </c>
       <c r="J15">
         <f>_xlfn.RANK.AVG(D15,D15:H15,1)</f>
@@ -1156,18 +1156,18 @@
       </c>
       <c r="L15">
         <f>_xlfn.RANK.AVG(F15,D15:H15,1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15">
         <f>_xlfn.RANK.AVG(G15,D15:H15,1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15">
         <f>_xlfn.RANK.AVG(H15,D15:H15,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1189,16 +1189,16 @@
       <c r="G16" s="3">
         <v>3.8839198166945956</v>
       </c>
-      <c r="H16" s="3">
-        <v>13.690164340546881</v>
+      <c r="H16">
+        <v>6.4248234120000003</v>
       </c>
       <c r="J16">
         <f>_xlfn.RANK.AVG(D16,D16:H16,1)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K16">
         <f>_xlfn.RANK.AVG(E16,D16:H16,1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L16">
         <f>_xlfn.RANK.AVG(F16,D16:H16,1)</f>
@@ -1210,10 +1210,10 @@
       </c>
       <c r="N16">
         <f>_xlfn.RANK.AVG(H16,D16:H16,1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1235,12 +1235,12 @@
       <c r="G17" s="3">
         <v>0.75657624825923264</v>
       </c>
-      <c r="H17" s="3">
-        <v>1.6259699084335277</v>
+      <c r="H17">
+        <v>3.0589838760000001</v>
       </c>
       <c r="J17">
         <f>_xlfn.RANK.AVG(D17,D17:H17,1)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K17">
         <f>_xlfn.RANK.AVG(E17,D17:H17,1)</f>
@@ -1256,10 +1256,10 @@
       </c>
       <c r="N17">
         <f>_xlfn.RANK.AVG(H17,D17:H17,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1281,16 +1281,16 @@
       <c r="G18" s="3">
         <v>0.82115253734848603</v>
       </c>
-      <c r="H18" s="3">
-        <v>0.82854232553661988</v>
+      <c r="H18">
+        <v>0.83182899200000004</v>
       </c>
       <c r="J18">
         <f>_xlfn.RANK.AVG(D18,D18:H18)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K18">
         <f>_xlfn.RANK.AVG(E18,D18:H18)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <f>_xlfn.RANK.AVG(F18,D18:H18)</f>
@@ -1302,10 +1302,10 @@
       </c>
       <c r="N18">
         <f>_xlfn.RANK.AVG(H18,D18:H18)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1327,8 +1327,8 @@
       <c r="G19" s="3">
         <v>1.341741011765436E-2</v>
       </c>
-      <c r="H19" s="3">
-        <v>1.8946908298469227E-2</v>
+      <c r="H19">
+        <v>1.7334143999999999E-2</v>
       </c>
       <c r="J19">
         <f>_xlfn.RANK.AVG(D19,D19:H19,1)</f>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="K19">
         <f>_xlfn.RANK.AVG(E19,D19:H19,1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L19">
         <f>_xlfn.RANK.AVG(F19,D19:H19,1)</f>
@@ -1348,10 +1348,10 @@
       </c>
       <c r="N19">
         <f>_xlfn.RANK.AVG(H19,D19:H19,1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1373,8 +1373,8 @@
       <c r="G20" s="3">
         <v>5.6803229283429131</v>
       </c>
-      <c r="H20" s="3">
-        <v>2.023606797749979</v>
+      <c r="H20">
+        <v>2.1180339890000002</v>
       </c>
       <c r="J20">
         <f>_xlfn.RANK.AVG(D20,D20:H20,1)</f>
@@ -1397,7 +1397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1419,16 +1419,16 @@
       <c r="G21" s="3">
         <v>0.50982723625180804</v>
       </c>
-      <c r="H21" s="3">
-        <v>7.465124915287169E-2</v>
+      <c r="H21">
+        <v>0.124418749</v>
       </c>
       <c r="J21">
         <f>_xlfn.RANK.AVG(D21,D21:H21,1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21">
         <f>_xlfn.RANK.AVG(E21,D21:H21,1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <f>_xlfn.RANK.AVG(F21,D21:H21,1)</f>
@@ -1440,10 +1440,10 @@
       </c>
       <c r="N21">
         <f>_xlfn.RANK.AVG(H21,D21:H21,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1454,11 +1454,11 @@
       <c r="H23" s="1"/>
       <c r="J23">
         <f>SUM(J2:J21)</f>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" ref="K23:N23" si="0">SUM(K2:K21)</f>
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" si="0"/>
@@ -1470,10 +1470,10 @@
       </c>
       <c r="N23" s="3">
         <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
@@ -1484,11 +1484,11 @@
       <c r="H24" s="2"/>
       <c r="J24">
         <f>_xlfn.RANK.AVG(J23,$J$23:$N$23,1)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" ref="K24:N24" si="1">_xlfn.RANK.AVG(K23,$J$23:$N$23,1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="1"/>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="N24" s="3">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
